--- a/Results/launch_results.xlsx
+++ b/Results/launch_results.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\MSU\4_1\Hausdorff\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB98DF8-4DAD-4C7F-B138-E3195021D776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3E86CD-C2CA-47EA-B991-21576D4590CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="scipy.spatial.distance" sheetId="1" r:id="rId1"/>
+    <sheet name="NaiveHDD" sheetId="4" r:id="rId2"/>
+    <sheet name="EARLYBREAK" sheetId="2" r:id="rId3"/>
+    <sheet name="KDTree" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>PROCESS</t>
   </si>
@@ -53,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -153,10 +156,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -296,7 +299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$D$3</c:f>
+              <c:f>'scipy.spatial.distance'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -382,7 +385,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sayfa1!$C$4:$C$9</c:f>
+              <c:f>'scipy.spatial.distance'!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -393,7 +396,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
@@ -409,27 +412,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$D$4:$D$9</c:f>
+              <c:f>'scipy.spatial.distance'!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2588.0455000000002</c:v>
+                  <c:v>2592.8712799999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2585.17938</c:v>
+                  <c:v>2585.0081500000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1294.74784</c:v>
+                  <c:v>870.88338999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>382.55266999999998</c:v>
+                  <c:v>394.28219999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>193.46599000000001</c:v>
+                  <c:v>189.33671000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.829220000000007</c:v>
+                  <c:v>94.524259999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,7 +464,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$E$3</c:f>
+              <c:f>'scipy.spatial.distance'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -558,7 +561,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$E$4:$E$9</c:f>
+              <c:f>'scipy.spatial.distance'!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -566,19 +569,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0011086735497636</c:v>
+                  <c:v>1.0030418201969691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9988799517904585</c:v>
+                  <c:v>2.9772887045187528</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7652004624618103</c:v>
+                  <c:v>6.576181425385168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.377263362930094</c:v>
+                  <c:v>13.694498441427443</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.72793914894698</c:v>
+                  <c:v>27.430749312398742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,7 +1094,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$D$26</c:f>
+              <c:f>'scipy.spatial.distance'!$D$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,7 +1200,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sayfa1!$C$27:$C$32</c:f>
+              <c:f>'scipy.spatial.distance'!$C$27:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1224,7 +1227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$D$27:$D$32</c:f>
+              <c:f>'scipy.spatial.distance'!$D$27:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1275,7 +1278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$E$26</c:f>
+              <c:f>'scipy.spatial.distance'!$E$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1373,7 +1376,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$E$27:$E$32</c:f>
+              <c:f>'scipy.spatial.distance'!$E$27:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2931,16 +2934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>308161</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>124386</xdr:rowOff>
+      <xdr:rowOff>169210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3267,21 +3270,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA839B1C-3EAE-4507-A101-468001B68762}">
   <dimension ref="C2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="3:5" ht="21" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
@@ -3298,11 +3300,11 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>2588.0455000000002</v>
+      <c r="D4" s="5">
+        <v>2592.8712799999998</v>
       </c>
       <c r="E4" s="4">
-        <f>$D$4/D4</f>
+        <f t="shared" ref="E4:E9" si="0">$D$4/D4</f>
         <v>1</v>
       </c>
     </row>
@@ -3310,67 +3312,69 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="6">
-        <v>2585.17938</v>
+      <c r="D5" s="5">
+        <v>2585.0081500000001</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:E9" si="0">$D$4/D5</f>
-        <v>1.0011086735497636</v>
+        <f t="shared" si="0"/>
+        <v>1.0030418201969691</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1294.74784</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>870.88338999999996</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9988799517904585</v>
+        <v>2.9772887045187528</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
-        <v>382.55266999999998</v>
+      <c r="D7" s="5">
+        <v>394.28219999999999</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>6.7652004624618103</v>
+        <v>6.576181425385168</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
-        <v>193.46599000000001</v>
+      <c r="D8" s="5">
+        <v>189.33671000000001</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>13.377263362930094</v>
+        <v>13.694498441427443</v>
       </c>
     </row>
     <row r="9" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>32</v>
       </c>
-      <c r="D9" s="6">
-        <v>96.829220000000007</v>
+      <c r="D9" s="5">
+        <v>94.524259999999998</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>26.72793914894698</v>
+        <v>27.430749312398742</v>
       </c>
     </row>
+    <row r="22" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="3:5" ht="21" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
@@ -3387,11 +3391,11 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>6784.8931700000003</v>
       </c>
       <c r="E27" s="4">
-        <f>$D$27/D27</f>
+        <f t="shared" ref="E27:E32" si="1">$D$27/D27</f>
         <v>1</v>
       </c>
     </row>
@@ -3399,11 +3403,11 @@
       <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>3472.13913</v>
       </c>
       <c r="E28" s="4">
-        <f>$D$27/D28</f>
+        <f t="shared" si="1"/>
         <v>1.9540959955714678</v>
       </c>
     </row>
@@ -3411,11 +3415,11 @@
       <c r="C29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>1782.1538499999999</v>
       </c>
       <c r="E29" s="4">
-        <f>$D$27/D29</f>
+        <f t="shared" si="1"/>
         <v>3.8071310005025665</v>
       </c>
     </row>
@@ -3423,11 +3427,11 @@
       <c r="C30" s="2">
         <v>8</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>951.96270000000004</v>
       </c>
       <c r="E30" s="4">
-        <f>$D$27/D30</f>
+        <f t="shared" si="1"/>
         <v>7.1272678750963667</v>
       </c>
     </row>
@@ -3435,11 +3439,11 @@
       <c r="C31" s="2">
         <v>16</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>504.84285999999997</v>
       </c>
       <c r="E31" s="4">
-        <f>$D$27/D31</f>
+        <f t="shared" si="1"/>
         <v>13.439614001869812</v>
       </c>
     </row>
@@ -3447,11 +3451,11 @@
       <c r="C32" s="2">
         <v>32</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>290.83019000000002</v>
       </c>
       <c r="E32" s="4">
-        <f>$D$27/D32</f>
+        <f t="shared" si="1"/>
         <v>23.329397714865845</v>
       </c>
     </row>
@@ -3464,4 +3468,184 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7133C0AE-F16D-48E6-B7D2-D067ED4DDD94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58481C45-4010-45FD-AA67-D1CD08F55204}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>26214.107189999999</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
+        <v>17597.07388</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68C7D0-61C1-475D-9777-CB4211107AD9}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>35200.117259999999</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5">
+        <v>21575.88726</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/launch_results.xlsx
+++ b/Results/launch_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\MSU\4_1\Hausdorff\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5B0B6-0248-463E-98FB-6FFFE2A60EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6749DC0F-2A90-4284-8240-58A3B1DF1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
   </bookViews>
   <sheets>
     <sheet name="scipy.spatial.distance 12155" sheetId="1" r:id="rId1"/>
@@ -4139,7 +4139,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EARLYBREAK 1K'!$D$7</c:f>
+              <c:f>'scipy.spatial.KDTree 1K'!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4263,7 +4263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EARLYBREAK 1K'!$D$8:$D$13</c:f>
+              <c:f>'scipy.spatial.KDTree 1K'!$D$8:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4271,19 +4271,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0003691040022635</c:v>
+                  <c:v>0.98473089676822723</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9940444664481465</c:v>
+                  <c:v>2.9792992235827613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4627294463866445</c:v>
+                  <c:v>6.7979950134351945</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9794865663558721</c:v>
+                  <c:v>13.609319753258459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.861529761968592</c:v>
+                  <c:v>22.928889248372148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14158,8 +14158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68C7D0-61C1-475D-9777-CB4211107AD9}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14447,8 +14447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58481C45-4010-45FD-AA67-D1CD08F55204}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14737,7 +14737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7133C0AE-F16D-48E6-B7D2-D067ED4DDD94}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Results/launch_results.xlsx
+++ b/Results/launch_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\MSU\4_1\Hausdorff\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6749DC0F-2A90-4284-8240-58A3B1DF1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A9CB5-C99D-4ADC-990A-47879C86CDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
   </bookViews>
   <sheets>
     <sheet name="scipy.spatial.distance 12155" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="13">
   <si>
     <t>PROCESS</t>
   </si>
@@ -101,6 +101,18 @@
       </rPr>
       <t xml:space="preserve"> 1000</t>
     </r>
+  </si>
+  <si>
+    <t>Ускорение</t>
+  </si>
+  <si>
+    <t>MPI Процессы</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Эффективность</t>
   </si>
 </sst>
 </file>
@@ -371,7 +383,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10990556056271797"/>
+          <c:y val="0.11207186369344221"/>
+          <c:w val="0.82048154596295197"/>
+          <c:h val="0.77154094924936845"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -385,7 +407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -550,7 +572,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -720,8 +742,29 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1400" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -729,8 +772,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39529186874400302"/>
-              <c:y val="0.90700736927114889"/>
+              <c:x val="0.45711653374955874"/>
+              <c:y val="0.92756677586454961"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -847,18 +890,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1">
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t>Время (с)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
                 <a:endParaRPr lang="tr-TR" sz="1400" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
@@ -871,8 +909,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="1.8209537151372506E-2"/>
+              <c:y val="0.43111417252806827"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1008,6 +1046,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85123297487026484"/>
+          <c:y val="1.3553840915893815E-2"/>
+          <c:w val="0.11222967208340161"/>
+          <c:h val="8.6735320560776222E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,6 +1180,12 @@
               </a:rPr>
               <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1600">
               <a:effectLst/>
             </a:endParaRPr>
@@ -1166,7 +1220,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10420611641759783"/>
+          <c:y val="0.1307172315231063"/>
+          <c:w val="0.84754897272082708"/>
+          <c:h val="0.7794304466852271"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1180,7 +1244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1202,8 +1266,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2439557739532045E-17"/>
-                  <c:y val="4.5834454132102354E-2"/>
+                  <c:x val="0"/>
+                  <c:y val="-2.9683412450090241E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -1364,7 +1428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1536,7 +1600,16 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:solidFill>
@@ -1551,8 +1624,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38113623266913443"/>
-              <c:y val="0.90700730608416902"/>
+              <c:x val="0.46039026589770365"/>
+              <c:y val="0.94028191381679527"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1669,13 +1742,40 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>с</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="800">
                   <a:solidFill>
@@ -1690,8 +1790,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="1.4670570256042287E-2"/>
+              <c:y val="0.44085474393995683"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1826,7 +1926,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86349725254432796"/>
+          <c:y val="3.0476064713821617E-2"/>
+          <c:w val="0.10135353705204569"/>
+          <c:h val="8.8455311477580303E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1985,7 +2095,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9053239916756061E-2"/>
+          <c:y val="0.10866016575245147"/>
+          <c:w val="0.84449866268743901"/>
+          <c:h val="0.80065796259617805"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1999,7 +2119,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2162,7 +2282,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2653,7 +2773,16 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:solidFill>
@@ -2668,8 +2797,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38113623266913443"/>
-              <c:y val="0.90700730608416902"/>
+              <c:x val="0.46108672811850832"/>
+              <c:y val="0.94564369597138798"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2786,13 +2915,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t>Время (с)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="800">
                   <a:solidFill>
@@ -2807,8 +2936,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="1.5404192878276338E-2"/>
+              <c:y val="0.45506100112070075"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2945,6 +3074,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86417527569335995"/>
+          <c:y val="2.7449490237618685E-2"/>
+          <c:w val="9.9356077678879981E-2"/>
+          <c:h val="6.2094586215728519E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3124,7 +3263,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.9549094391975818E-2"/>
+          <c:y val="0.10540892824142552"/>
+          <c:w val="0.83252950009062465"/>
+          <c:h val="0.80662250631874288"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3138,7 +3287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3301,7 +3450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3498,8 +3647,21 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3507,8 +3669,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39529186874400302"/>
-              <c:y val="0.90700736927114889"/>
+              <c:x val="0.45301441623104999"/>
+              <c:y val="0.94627245112416358"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3625,18 +3787,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1">
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t>Время (с)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
                 <a:endParaRPr lang="tr-TR" sz="1400" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
@@ -3649,8 +3806,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="1.6801624257890297E-2"/>
+              <c:y val="0.46160909589803445"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3787,6 +3944,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87633989913238763"/>
+          <c:y val="1.8386575666463102E-2"/>
+          <c:w val="9.9726352675253177E-2"/>
+          <c:h val="6.0236644563070436E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3920,15 +4087,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
+              <a:t>scipy.spatial.KDTree</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1600" b="1">
               <a:solidFill>
@@ -3966,7 +4130,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10988950536489256"/>
+          <c:y val="0.13323392666351355"/>
+          <c:w val="0.82343360127202636"/>
+          <c:h val="0.77306901326981692"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3980,7 +4154,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4143,7 +4317,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4340,8 +4514,21 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4349,8 +4536,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.39529186874400302"/>
-              <c:y val="0.90700736927114889"/>
+              <c:x val="0.45953679165112987"/>
+              <c:y val="0.94148170563024125"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4467,18 +4654,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1">
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t>Время (с)</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
                 <a:endParaRPr lang="tr-TR" sz="1400" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
@@ -4491,8 +4673,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="9.3774212390937989E-3"/>
+              <c:y val="0.47026569650516337"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4629,6 +4811,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86251083997814448"/>
+          <c:y val="2.598180987744261E-2"/>
+          <c:w val="0.12512424033623684"/>
+          <c:h val="8.6735320560776222E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4711,7 +4903,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -4742,18 +4934,12 @@
               <a:t> и </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>s</a:t>
+              <a:t>scipy.spatial.KDTree</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -4772,7 +4958,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -4787,7 +4973,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12823193996577861"/>
+          <c:y val="0.12118385927550528"/>
+          <c:w val="0.8040968843490488"/>
+          <c:h val="0.77839857061099393"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4801,7 +4997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4964,7 +5160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5455,7 +5651,16 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> Процессы</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:solidFill>
@@ -5470,8 +5675,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38113623266913443"/>
-              <c:y val="0.90700730608416902"/>
+              <c:x val="0.46382400254775208"/>
+              <c:y val="0.93545698037475689"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5588,15 +5793,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t>Время (с)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="800">
+                <a:endParaRPr lang="en-US" sz="800" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -5609,8 +5814,886 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="1.4670558901257399E-2"/>
+              <c:y val="0.44529184097348795"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698828864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955801504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955801920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1955801920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1955801504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85975660190192404"/>
+          <c:y val="1.9664429876880673E-2"/>
+          <c:w val="0.12533912152755719"/>
+          <c:h val="8.7349319021425467E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Время выполнения алгоритма с </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>динамическим распределением</a:t>
+            </a:r>
+            <a:endParaRPr lang="tr-TR" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>и</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Earlybreak</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11588257446080108"/>
+          <c:y val="0.15177932382032189"/>
+          <c:w val="0.81980372018715064"/>
+          <c:h val="0.72155389754285537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EARLYBREAK 1K'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EARLYBREAK 1K'!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5250.9729100000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5249.0354699999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1753.80592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>812.50081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>526.17665999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>331.05085000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF5C-4C5E-B56B-4A79D691F934}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1698828864"/>
+        <c:axId val="1698829696"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'EARLYBREAK 1K'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ускорение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EARLYBREAK 1K'!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0003691040022635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9940444664481465</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4627294463866445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9794865663558721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.861529761968592</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF5C-4C5E-B56B-4A79D691F934}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1955801920"/>
+        <c:axId val="1955801504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1698828864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MPI </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4518172817925214"/>
+              <c:y val="0.92242694099085087"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698829696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1698829696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Время (с)</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6443119832360041E-2"/>
+              <c:y val="0.42083450278067086"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5747,848 +6830,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Время выполнения алгоритма с </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>динамическим распределением</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>и</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'EARLYBREAK 1K'!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TIME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4472C4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EARLYBREAK 1K'!$C$8:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5250.9729100000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5249.0354699999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1753.80592</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>812.50081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>526.17665999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>331.05085000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF5C-4C5E-B56B-4A79D691F934}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1698828864"/>
-        <c:axId val="1698829696"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'EARLYBREAK 1K'!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ED7D31">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'EARLYBREAK 1K'!$D$8:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0003691040022635</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9940444664481465</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4627294463866445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.9794865663558721</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.861529761968592</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF5C-4C5E-B56B-4A79D691F934}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1955801920"/>
-        <c:axId val="1955801504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1698828864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Number of Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.39529186874400302"/>
-              <c:y val="0.90700736927114889"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698829696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1698829696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1"/>
-                </a:pPr>
-                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698828864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1955801504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1955801920"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1955801920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1955801504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86251083843067589"/>
+          <c:y val="2.2393289237327405E-2"/>
+          <c:w val="0.12512424033623684"/>
+          <c:h val="8.6735320560776222E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6699,19 +6950,31 @@
               <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t> и </a:t>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="tr-TR" sz="1600" b="1" i="0" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>и </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="tr-TR" sz="1600" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
+              <a:t>Earlybreak</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1600">
               <a:effectLst/>
@@ -6747,7 +7010,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10895526646125755"/>
+          <c:y val="0.13073176547195844"/>
+          <c:w val="0.83996622161360268"/>
+          <c:h val="0.76016660473398112"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6761,7 +7034,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TIME</c:v>
+                  <c:v>Время</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6924,7 +7197,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SPEEDUP</c:v>
+                  <c:v>Ускорение</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7415,7 +7688,16 @@
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Number of Processes</a:t>
+                  <a:t>MPI </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:solidFill>
@@ -7430,8 +7712,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38113623266913443"/>
-              <c:y val="0.90700730608416902"/>
+              <c:x val="0.47099132717106007"/>
+              <c:y val="0.93799695751324819"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7548,15 +7830,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Elapsed Time (seconds)</a:t>
+                  <a:t>Время (с)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="800">
+                <a:endParaRPr lang="ru-RU" sz="800">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -7569,8 +7851,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8209473460198695E-2"/>
-              <c:y val="0.25635974074669232"/>
+              <c:x val="1.3861691201643272E-2"/>
+              <c:y val="0.45557840364261787"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7707,6 +7989,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87705066757959604"/>
+          <c:y val="2.8858481838152806E-2"/>
+          <c:w val="0.1026594773479402"/>
+          <c:h val="7.470755107006434E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12118,13 +12410,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>133909</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>52668</xdr:rowOff>
+      <xdr:rowOff>86286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>62191</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52667</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12152,15 +12444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140073</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12329</xdr:rowOff>
+      <xdr:colOff>252131</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>212915</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12192,16 +12484,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>521074</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12231,15 +12523,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>11205</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>544606</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560293</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12273,16 +12565,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>134469</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12312,15 +12604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>521074</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12360,10 +12652,10 @@
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>544606</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>112057</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12393,15 +12685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>521074</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13588,8 +13880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA839B1C-3EAE-4507-A101-468001B68762}">
   <dimension ref="C2:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13616,17 +13908,17 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13742,17 +14034,17 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
-        <v>0</v>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13869,7 +14161,7 @@
   <dimension ref="B2:E32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="X52" sqref="X52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13897,17 +14189,17 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14033,17 +14325,17 @@
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>0</v>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14158,8 +14450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68C7D0-61C1-475D-9777-CB4211107AD9}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14186,17 +14478,17 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14322,17 +14614,17 @@
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>0</v>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14447,8 +14739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58481C45-4010-45FD-AA67-D1CD08F55204}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14475,17 +14767,17 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>0</v>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14611,17 +14903,17 @@
       <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>0</v>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14737,7 +15029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7133C0AE-F16D-48E6-B7D2-D067ED4DDD94}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Results/launch_results.xlsx
+++ b/Results/launch_results.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\MSU\4_1\Hausdorff\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707A9CB5-C99D-4ADC-990A-47879C86CDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1843B67A-F499-4E18-98DA-40ABCE98961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
   </bookViews>
   <sheets>
     <sheet name="scipy.spatial.distance 12155" sheetId="1" r:id="rId1"/>
     <sheet name="scipy.spatial.distance 1K" sheetId="5" r:id="rId2"/>
-    <sheet name="scipy.spatial.KDTree 1K" sheetId="3" r:id="rId3"/>
-    <sheet name="EARLYBREAK 1K" sheetId="2" r:id="rId4"/>
+    <sheet name="EARLYBREAK 1K" sheetId="2" r:id="rId3"/>
+    <sheet name="scipy.spatial.KDTree 1K" sheetId="3" r:id="rId4"/>
     <sheet name="NaiveHDD" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -336,16 +336,13 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
+              <a:t>методом раннего выхода со случайной выборкой</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1600" b="1">
               <a:solidFill>
@@ -1050,8 +1047,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.85123297487026484"/>
-          <c:y val="1.3553840915893815E-2"/>
+          <c:x val="0.87967116938079748"/>
+          <c:y val="1.1463976413163908E-2"/>
           <c:w val="0.11222967208340161"/>
           <c:h val="8.6735320560776222E-2"/>
         </c:manualLayout>
@@ -2232,22 +2229,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>343.98081999999999</c:v>
+                  <c:v>246.41576000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176.89689000000001</c:v>
+                  <c:v>123.47629000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.88494</c:v>
+                  <c:v>64.531040000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.822960000000002</c:v>
+                  <c:v>36.356720000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.73601</c:v>
+                  <c:v>22.85596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.149090000000001</c:v>
+                  <c:v>16.51895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,19 +2700,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.944527232785155</c:v>
+                  <c:v>1.9956524446920132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7847944885038158</c:v>
+                  <c:v>3.818561734012035</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9040623038053131</c:v>
+                  <c:v>6.7777225228238409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.567820295998017</c:v>
+                  <c:v>10.78124742955448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.963298517057467</c:v>
+                  <c:v>14.917156356790231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,22 +3397,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>241.14058</c:v>
+                  <c:v>254.76016999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242.50163000000001</c:v>
+                  <c:v>240.58552</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.783879999999996</c:v>
+                  <c:v>81.304249999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.765459999999997</c:v>
+                  <c:v>36.420409999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.93674</c:v>
+                  <c:v>21.064260000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.676069999999999</c:v>
+                  <c:v>9.9631799999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,19 +3575,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99438746040593617</c:v>
+                  <c:v>1.0589173030862371</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9485099019513381</c:v>
+                  <c:v>3.1334176257698707</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3852149556764308</c:v>
+                  <c:v>6.9949835820080004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.734007014934988</c:v>
+                  <c:v>12.094427717850044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.587017507378654</c:v>
+                  <c:v>25.570166352509943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4061,2014 +4058,6 @@
               </a:rPr>
               <a:t>динамическим распределением</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>и</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>scipy.spatial.KDTree</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1600" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10988950536489256"/>
-          <c:y val="0.13323392666351355"/>
-          <c:w val="0.82343360127202636"/>
-          <c:h val="0.77306901326981692"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4472C4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$C$8:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>19197.23935</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19494.90913</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6443.5418900000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2823.9560799999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1410.5950700000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>837.25117</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AC9C-48B6-BAE0-60BCAD0E21C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1698828864"/>
-        <c:axId val="1698829696"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ускорение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ED7D31">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$D$8:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98473089676822723</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.9792992235827613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7979950134351945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.609319753258459</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22.928889248372148</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AC9C-48B6-BAE0-60BCAD0E21C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1955801920"/>
-        <c:axId val="1955801504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1698828864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>MPI </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Процессы</a:t>
-                </a:r>
-                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.45953679165112987"/>
-              <c:y val="0.94148170563024125"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698829696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1698829696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="1">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Время (с)</a:t>
-                </a:r>
-                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="9.3774212390937989E-3"/>
-              <c:y val="0.47026569650516337"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698828864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1955801504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1955801920"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1955801920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1955801504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.86251083997814448"/>
-          <c:y val="2.598180987744261E-2"/>
-          <c:w val="0.12512424033623684"/>
-          <c:h val="8.6735320560776222E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Время выполнения алгоритма со </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>статическим распределением</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> и </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>scipy.spatial.KDTree</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" b="1">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12823193996577861"/>
-          <c:y val="0.12118385927550528"/>
-          <c:w val="0.8040968843490488"/>
-          <c:h val="0.77839857061099393"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4472C4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'scipy.spatial.distance 1K'!$B$27:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$C$27:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>19358.79177</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10168.06969</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5269.3427199999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3052.9277099999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1859.6052999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1106.04466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5CB2-4433-95EB-F56E406B5E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="1698828864"/>
-        <c:axId val="1698829696"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$D$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ускорение</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5CB2-4433-95EB-F56E406B5E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2439557739532045E-17"/>
-                  <c:y val="4.5834454132102354E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5CB2-4433-95EB-F56E406B5E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5CB2-4433-95EB-F56E406B5E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5CB2-4433-95EB-F56E406B5E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5CB2-4433-95EB-F56E406B5E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ED7D31">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:srgbClr>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5CB2-4433-95EB-F56E406B5E45}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4472C4">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'scipy.spatial.distance 1K'!$B$27:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'scipy.spatial.KDTree 1K'!$D$27:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9038807128789457</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6738532296491053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3410580298345813</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.410161645592213</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.502721608004506</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5CB2-4433-95EB-F56E406B5E45}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1955801920"/>
-        <c:axId val="1955801504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1698828864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>MPI</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t> Процессы</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46382400254775208"/>
-              <c:y val="0.93545698037475689"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698829696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1698829696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Время (с)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="800" b="1">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.4670558901257399E-2"/>
-              <c:y val="0.44529184097348795"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1698828864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1955801504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1955801920"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1955801920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1955801504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.85975660190192404"/>
-          <c:y val="1.9664429876880673E-2"/>
-          <c:w val="0.12533912152755719"/>
-          <c:h val="8.7349319021425467E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Время выполнения алгоритма с </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>динамическим распределением</a:t>
-            </a:r>
             <a:endParaRPr lang="tr-TR" sz="1600" b="1">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -6900,7 +4889,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8059,6 +6048,2015 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Время выполнения алгоритма с </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>динамическим распределением</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>и</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>scipy.spatial.KDTree</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10988950536489256"/>
+          <c:y val="0.13323392666351355"/>
+          <c:w val="0.82343360127202636"/>
+          <c:h val="0.76688719479299428"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19197.23935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19494.90913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6443.5418900000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2823.9560799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1410.5950700000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>837.25117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC9C-48B6-BAE0-60BCAD0E21C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1698828864"/>
+        <c:axId val="1698829696"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ускорение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scipy.spatial.distance 1K'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98473089676822723</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9792992235827613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7979950134351945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.609319753258459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.928889248372148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC9C-48B6-BAE0-60BCAD0E21C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1955801920"/>
+        <c:axId val="1955801504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1698828864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MPI </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Процессы</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45953679165112987"/>
+              <c:y val="0.94148170563024125"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698829696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1698829696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Время (с)</a:t>
+                </a:r>
+                <a:endParaRPr lang="tr-TR" sz="1400" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.3774212390937989E-3"/>
+              <c:y val="0.47026569650516337"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698828864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955801504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955801920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1955801920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1955801504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86251083997814448"/>
+          <c:y val="2.598180987744261E-2"/>
+          <c:w val="0.12512424033623684"/>
+          <c:h val="8.6735320560776222E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Время выполнения алгоритма со </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>статическим распределением</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> и </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>scipy.spatial.KDTree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12823193996577861"/>
+          <c:y val="0.12118385927550528"/>
+          <c:w val="0.8040968843490488"/>
+          <c:h val="0.77839857061099393"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scipy.spatial.distance 1K'!$B$27:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$C$27:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19358.79177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10168.06969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5269.3427199999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3052.9277099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1859.6052999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1106.04466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CB2-4433-95EB-F56E406B5E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1698828864"/>
+        <c:axId val="1698829696"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ускорение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5CB2-4433-95EB-F56E406B5E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2439557739532045E-17"/>
+                  <c:y val="4.5834454132102354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5CB2-4433-95EB-F56E406B5E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5CB2-4433-95EB-F56E406B5E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5CB2-4433-95EB-F56E406B5E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5CB2-4433-95EB-F56E406B5E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ED7D31">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5CB2-4433-95EB-F56E406B5E45}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4472C4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'scipy.spatial.distance 1K'!$B$27:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'scipy.spatial.KDTree 1K'!$D$27:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9038807128789457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6738532296491053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3410580298345813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.410161645592213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.502721608004506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5CB2-4433-95EB-F56E406B5E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1955801920"/>
+        <c:axId val="1955801504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1698828864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="tr-TR" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>MPI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> Процессы</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46382400254775208"/>
+              <c:y val="0.93545698037475689"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698829696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1698829696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Время (с)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="800" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6099677423529461E-2"/>
+              <c:y val="0.47243757600219588"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1698828864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1955801504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1955801920"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1955801920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1955801504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85975660190192404"/>
+          <c:y val="1.9664429876880673E-2"/>
+          <c:w val="0.12533912152755719"/>
+          <c:h val="8.7349319021425467E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12477,6 +12475,122 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1872629" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C19164C-FB34-48C3-A0BD-1BE882E4D9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12617823" y="5894294"/>
+          <a:ext cx="1872629" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 12155</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1876887" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA695784-E3D7-45BA-B2F3-C69ECF5287B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12617824" y="11911853"/>
+          <a:ext cx="1876887" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 12155</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12558,91 +12672,126 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801134" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418BDE76-A25D-417D-B35B-D294F0455A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12606618" y="14209059"/>
+          <a:ext cx="1801134" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801134" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C196BFC7-F3F6-4B0C-A77A-7FD0D653044D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12651442" y="7059706"/>
+          <a:ext cx="1801134" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94C2748-7286-4DC7-BD18-B7625936E8E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11204</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>224116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>134469</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03485E-981E-4136-8759-42FB5EA741EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12720,7 +12869,371 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7AAF70-9B58-49E2-AADA-002D9BB6FF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15239999" y="4639236"/>
+          <a:ext cx="1736912" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801134" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DBCD14-86B8-D559-0BBA-B73CB20826FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12393707" y="5883089"/>
+          <a:ext cx="1801134" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801134" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22B9E1A-AF8A-43E8-801F-74C748C0D40A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12393707" y="12494559"/>
+          <a:ext cx="1801134" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>134469</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94C2748-7286-4DC7-BD18-B7625936E8E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03485E-981E-4136-8759-42FB5EA741EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1801134" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{036CAE5B-FB5A-4844-BA68-1F718C05226B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12516970" y="11979088"/>
+          <a:ext cx="1801134" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Количество моделей: 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.81392</cdr:x>
+      <cdr:y>0.95273</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B71D99-E1AF-2F69-756F-EB290903A1DD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7205384" y="5871881"/>
+          <a:ext cx="1647263" cy="291354"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1050" b="0"/>
+            <a:t>Количество</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1050" b="0" baseline="0"/>
+            <a:t> моделей: 1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13881,13 +14394,14 @@
   <dimension ref="C2:F32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="8"/>
-    <col min="3" max="6" width="15.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" style="8" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -13933,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <f>$E5/$C5</f>
+        <f t="shared" ref="F5:F10" si="1">$E5/$C5</f>
         <v>1</v>
       </c>
     </row>
@@ -13949,7 +14463,7 @@
         <v>1.0030418201969691</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="F6:F10" si="1">$E6/$C6</f>
+        <f t="shared" si="1"/>
         <v>0.50152091009848454</v>
       </c>
     </row>
@@ -14059,7 +14573,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="7">
-        <f>$E27/$C27</f>
+        <f t="shared" ref="F27:F32" si="3">$E27/$C27</f>
         <v>1</v>
       </c>
     </row>
@@ -14075,7 +14589,7 @@
         <v>1.9540959955714678</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" ref="F28:F32" si="3">$E28/$C28</f>
+        <f t="shared" si="3"/>
         <v>0.97704799778573392</v>
       </c>
     </row>
@@ -14160,8 +14674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37790DDA-78D0-4C40-B051-A90A24181DEC}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X52" sqref="X52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14207,7 +14721,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>241.14058</v>
+        <v>254.76016999999999</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" ref="D8:D13" si="0">$C$8/C8</f>
@@ -14223,15 +14737,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <v>242.50163000000001</v>
+        <v>240.58552</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0.99438746040593617</v>
+        <v>1.0589173030862371</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>0.49719373020296809</v>
+        <v>0.52945865154311855</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14239,15 +14753,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>81.783879999999996</v>
+        <v>81.304249999999996</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>2.9485099019513381</v>
+        <v>3.1334176257698707</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0.73712747548783453</v>
+        <v>0.78335440644246768</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14255,15 +14769,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>37.765459999999997</v>
+        <v>36.420409999999997</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>6.3852149556764308</v>
+        <v>6.9949835820080004</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>0.79815186945955385</v>
+        <v>0.87437294775100005</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14271,15 +14785,15 @@
         <v>16</v>
       </c>
       <c r="C12" s="3">
-        <v>18.93674</v>
+        <v>21.064260000000001</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>12.734007014934988</v>
+        <v>12.094427717850044</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>0.79587543843343678</v>
+        <v>0.75590173236562774</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14287,15 +14801,15 @@
         <v>32</v>
       </c>
       <c r="C13" s="3">
-        <v>10.676069999999999</v>
+        <v>9.9631799999999995</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>22.587017507378654</v>
+        <v>25.570166352509943</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>0.70584429710558294</v>
+        <v>0.79906769851593573</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14343,14 +14857,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>343.98081999999999</v>
+        <v>246.41576000000001</v>
       </c>
       <c r="D27" s="7">
-        <f>$C$27/C27</f>
+        <f t="shared" ref="D27:D32" si="2">$C$27/C27</f>
         <v>1</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" ref="E27:E32" si="2">$D27/$B27</f>
+        <f t="shared" ref="E27:E32" si="3">$D27/$B27</f>
         <v>1</v>
       </c>
     </row>
@@ -14359,15 +14873,15 @@
         <v>2</v>
       </c>
       <c r="C28" s="6">
-        <v>176.89689000000001</v>
+        <v>123.47629000000001</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" ref="D28:D32" si="3">$C$27/C28</f>
-        <v>1.944527232785155</v>
+        <f t="shared" si="2"/>
+        <v>1.9956524446920132</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="2"/>
-        <v>0.97226361639257752</v>
+        <f t="shared" si="3"/>
+        <v>0.9978262223460066</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14375,15 +14889,15 @@
         <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>90.88494</v>
+        <v>64.531040000000004</v>
       </c>
       <c r="D29" s="7">
+        <f t="shared" si="2"/>
+        <v>3.818561734012035</v>
+      </c>
+      <c r="E29" s="7">
         <f t="shared" si="3"/>
-        <v>3.7847944885038158</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.94619862212595396</v>
+        <v>0.95464043350300876</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14391,15 +14905,15 @@
         <v>8</v>
       </c>
       <c r="C30" s="6">
-        <v>49.822960000000002</v>
+        <v>36.356720000000003</v>
       </c>
       <c r="D30" s="7">
+        <f t="shared" si="2"/>
+        <v>6.7777225228238409</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="3"/>
-        <v>6.9040623038053131</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.86300778797566413</v>
+        <v>0.84721531535298011</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14407,15 +14921,15 @@
         <v>16</v>
       </c>
       <c r="C31" s="6">
-        <v>29.73601</v>
+        <v>22.85596</v>
       </c>
       <c r="D31" s="7">
+        <f t="shared" si="2"/>
+        <v>10.78124742955448</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="3"/>
-        <v>11.567820295998017</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="2"/>
-        <v>0.72298876849987603</v>
+        <v>0.67382796434715497</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14423,15 +14937,15 @@
         <v>32</v>
       </c>
       <c r="C32" s="6">
-        <v>19.149090000000001</v>
+        <v>16.51895</v>
       </c>
       <c r="D32" s="7">
+        <f t="shared" si="2"/>
+        <v>14.917156356790231</v>
+      </c>
+      <c r="E32" s="7">
         <f t="shared" si="3"/>
-        <v>17.963298517057467</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="2"/>
-        <v>0.56135307865804585</v>
+        <v>0.46616113614969473</v>
       </c>
     </row>
   </sheetData>
@@ -14447,14 +14961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68C7D0-61C1-475D-9777-CB4211107AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58481C45-4010-45FD-AA67-D1CD08F55204}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="5" width="15.7109375" style="8" customWidth="1"/>
@@ -14471,7 +14985,7 @@
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -14496,14 +15010,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>19197.23935</v>
+        <v>5250.9729100000004</v>
       </c>
       <c r="D8" s="7">
-        <f>$C$8/C8</f>
+        <f t="shared" ref="D8:D13" si="0">$C$8/C8</f>
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <f>$D8/B8</f>
+        <f t="shared" ref="E8:E13" si="1">$D8/B8</f>
         <v>1</v>
       </c>
     </row>
@@ -14512,15 +15026,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>19494.90913</v>
+        <v>5249.0354699999998</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:D13" si="0">$C$8/C9</f>
-        <v>0.98473089676822723</v>
+        <f t="shared" si="0"/>
+        <v>1.0003691040022635</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E13" si="1">$D9/B9</f>
-        <v>0.49236544838411361</v>
+        <f t="shared" si="1"/>
+        <v>0.50018455200113177</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14528,15 +15042,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>6443.5418900000004</v>
+        <v>1753.80592</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>2.9792992235827613</v>
+        <v>2.9940444664481465</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0.74482480589569033</v>
+        <v>0.74851111661203662</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14544,15 +15058,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="6">
-        <v>2823.9560799999999</v>
+        <v>812.50081</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>6.7979950134351945</v>
+        <v>6.4627294463866445</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>0.84974937667939932</v>
+        <v>0.80784118079833056</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14560,15 +15074,15 @@
         <v>16</v>
       </c>
       <c r="C12" s="6">
-        <v>1410.5950700000001</v>
+        <v>526.17665999999997</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>13.609319753258459</v>
+        <v>9.9794865663558721</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>0.85058248457865371</v>
+        <v>0.623717910397242</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14576,15 +15090,15 @@
         <v>32</v>
       </c>
       <c r="C13" s="6">
-        <v>837.25117</v>
+        <v>331.05085000000003</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>22.928889248372148</v>
+        <v>15.861529761968592</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>0.71652778901162961</v>
+        <v>0.49567280506151851</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14632,14 +15146,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>19358.79177</v>
+        <v>5338.9532900000004</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" ref="D27:D32" si="2">$C$27/C27</f>
         <v>1</v>
       </c>
       <c r="E27" s="7">
-        <f>$D27/B27</f>
+        <f t="shared" ref="E27:E32" si="3">$D27/$B27</f>
         <v>1</v>
       </c>
     </row>
@@ -14648,15 +15162,15 @@
         <v>2</v>
       </c>
       <c r="C28" s="6">
-        <v>10168.06969</v>
+        <v>3109.3823600000001</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="2"/>
-        <v>1.9038807128789457</v>
+        <v>1.7170462400127593</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" ref="E28:E32" si="3">$D28/B28</f>
-        <v>0.95194035643947283</v>
+        <f t="shared" si="3"/>
+        <v>0.85852312000637965</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,15 +15178,15 @@
         <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>5269.3427199999996</v>
+        <v>1847.8936799999999</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="2"/>
-        <v>3.6738532296491053</v>
+        <v>2.8892102114879252</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="3"/>
-        <v>0.91846330741227633</v>
+        <v>0.72230255287198131</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14680,15 +15194,15 @@
         <v>8</v>
       </c>
       <c r="C30" s="6">
-        <v>3052.9277099999999</v>
+        <v>1348.3117400000001</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="2"/>
-        <v>6.3410580298345813</v>
+        <v>3.9597321091337525</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="3"/>
-        <v>0.79263225372932267</v>
+        <v>0.49496651364171906</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14696,15 +15210,15 @@
         <v>16</v>
       </c>
       <c r="C31" s="6">
-        <v>1859.6052999999999</v>
+        <v>734.29324999999994</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="2"/>
-        <v>10.410161645592213</v>
+        <v>7.2708734419116627</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="3"/>
-        <v>0.65063510284951331</v>
+        <v>0.45442959011947892</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14712,38 +15226,39 @@
         <v>32</v>
       </c>
       <c r="C32" s="6">
-        <v>1106.04466</v>
+        <v>500.23203000000001</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="2"/>
-        <v>17.502721608004506</v>
+        <v>10.672953689111031</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="3"/>
-        <v>0.54696005025014083</v>
+        <v>0.33352980278471972</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58481C45-4010-45FD-AA67-D1CD08F55204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68C7D0-61C1-475D-9777-CB4211107AD9}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="5" width="15.7109375" style="8" customWidth="1"/>
@@ -14760,7 +15275,7 @@
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -14785,14 +15300,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>5250.9729100000004</v>
+        <v>19197.23935</v>
       </c>
       <c r="D8" s="7">
-        <f>$C$8/C8</f>
+        <f t="shared" ref="D8:D13" si="0">$C$8/C8</f>
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <f>$D8/B8</f>
+        <f t="shared" ref="E8:E13" si="1">$D8/B8</f>
         <v>1</v>
       </c>
     </row>
@@ -14801,15 +15316,15 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>5249.0354699999998</v>
+        <v>19494.90913</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:D13" si="0">$C$8/C9</f>
-        <v>1.0003691040022635</v>
+        <f t="shared" si="0"/>
+        <v>0.98473089676822723</v>
       </c>
       <c r="E9" s="7">
-        <f t="shared" ref="E9:E13" si="1">$D9/B9</f>
-        <v>0.50018455200113177</v>
+        <f t="shared" si="1"/>
+        <v>0.49236544838411361</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14817,15 +15332,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="6">
-        <v>1753.80592</v>
+        <v>6443.5418900000004</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>2.9940444664481465</v>
+        <v>2.9792992235827613</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0.74851111661203662</v>
+        <v>0.74482480589569033</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14833,15 +15348,15 @@
         <v>8</v>
       </c>
       <c r="C11" s="6">
-        <v>812.50081</v>
+        <v>2823.9560799999999</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>6.4627294463866445</v>
+        <v>6.7979950134351945</v>
       </c>
       <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>0.80784118079833056</v>
+        <v>0.84974937667939932</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14849,15 +15364,15 @@
         <v>16</v>
       </c>
       <c r="C12" s="6">
-        <v>526.17665999999997</v>
+        <v>1410.5950700000001</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>9.9794865663558721</v>
+        <v>13.609319753258459</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>0.623717910397242</v>
+        <v>0.85058248457865371</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14865,15 +15380,15 @@
         <v>32</v>
       </c>
       <c r="C13" s="6">
-        <v>331.05085000000003</v>
+        <v>837.25117</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>15.861529761968592</v>
+        <v>22.928889248372148</v>
       </c>
       <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>0.49567280506151851</v>
+        <v>0.71652778901162961</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14921,14 +15436,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="6">
-        <v>5338.9532900000004</v>
+        <v>19358.79177</v>
       </c>
       <c r="D27" s="7">
-        <f>$C$27/C27</f>
+        <f t="shared" ref="D27:D32" si="2">$C$27/C27</f>
         <v>1</v>
       </c>
       <c r="E27" s="7">
-        <f>$D27/$B27</f>
+        <f t="shared" ref="E27:E32" si="3">$D27/B27</f>
         <v>1</v>
       </c>
     </row>
@@ -14937,15 +15452,15 @@
         <v>2</v>
       </c>
       <c r="C28" s="6">
-        <v>3109.3823600000001</v>
+        <v>10168.06969</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" ref="D28:D32" si="2">$C$27/C28</f>
-        <v>1.7170462400127593</v>
+        <f t="shared" si="2"/>
+        <v>1.9038807128789457</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" ref="E28:E32" si="3">$D28/$B28</f>
-        <v>0.85852312000637965</v>
+        <f t="shared" si="3"/>
+        <v>0.95194035643947283</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14953,15 +15468,15 @@
         <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>1847.8936799999999</v>
+        <v>5269.3427199999996</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="2"/>
-        <v>2.8892102114879252</v>
+        <v>3.6738532296491053</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="3"/>
-        <v>0.72230255287198131</v>
+        <v>0.91846330741227633</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14969,15 +15484,15 @@
         <v>8</v>
       </c>
       <c r="C30" s="6">
-        <v>1348.3117400000001</v>
+        <v>3052.9277099999999</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="2"/>
-        <v>3.9597321091337525</v>
+        <v>6.3410580298345813</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="3"/>
-        <v>0.49496651364171906</v>
+        <v>0.79263225372932267</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14985,15 +15500,15 @@
         <v>16</v>
       </c>
       <c r="C31" s="6">
-        <v>734.29324999999994</v>
+        <v>1859.6052999999999</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="2"/>
-        <v>7.2708734419116627</v>
+        <v>10.410161645592213</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="3"/>
-        <v>0.45442959011947892</v>
+        <v>0.65063510284951331</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15001,27 +15516,26 @@
         <v>32</v>
       </c>
       <c r="C32" s="6">
-        <v>500.23203000000001</v>
+        <v>1106.04466</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="2"/>
-        <v>10.672953689111031</v>
+        <v>17.502721608004506</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="3"/>
-        <v>0.33352980278471972</v>
+        <v>0.54696005025014083</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results/launch_results.xlsx
+++ b/Results/launch_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\MSU\4_1\Hausdorff\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1843B67A-F499-4E18-98DA-40ABCE98961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE0524-0950-4A88-A906-C43F5E735318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
   </bookViews>
   <sheets>
     <sheet name="scipy.spatial.distance 12155" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>методом раннего выхода со случайной выборкой</a:t>
+              <a:t>методом раннего выхода со случайным выбором точек</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1600" b="1">
               <a:solidFill>
@@ -530,7 +530,7 @@
                   <c:v>394.28219999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189.33671000000001</c:v>
+                  <c:v>190.88708</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>94.524259999999998</c:v>
@@ -679,7 +679,7 @@
                   <c:v>6.576181425385168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.694498441427443</c:v>
+                  <c:v>13.583272791432504</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27.430749312398742</c:v>
@@ -1047,10 +1047,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.87967116938079748"/>
-          <c:y val="1.1463976413163908E-2"/>
-          <c:w val="0.11222967208340161"/>
-          <c:h val="8.6735320560776222E-2"/>
+          <c:x val="0.88535880828290392"/>
+          <c:y val="9.3741119104340017E-3"/>
+          <c:w val="0.10938583576382864"/>
+          <c:h val="7.8375842877733554E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1145,13 +1145,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>Время выполнения алгоритма со </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -1160,30 +1163,18 @@
               <a:t>статическим распределением</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t> и </a:t>
+              <a:t> и методом раннего выхода со случайным выбором точек</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1375,22 +1366,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6784.8931700000003</c:v>
+                  <c:v>2400.9178000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3472.13913</c:v>
+                  <c:v>1286.1327200000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1782.1538499999999</c:v>
+                  <c:v>677.85973000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>951.96270000000004</c:v>
+                  <c:v>381.38065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>504.84285999999997</c:v>
+                  <c:v>200.74110999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>290.83019000000002</c:v>
+                  <c:v>137.42282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,19 +1518,19 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9540959955714678</c:v>
+                  <c:v>1.8667729719215915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8071310005025665</c:v>
+                  <c:v>3.5419094743981918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1272678750963667</c:v>
+                  <c:v>6.2953319734496231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.439614001869812</c:v>
+                  <c:v>11.960269622898869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.329397714865845</c:v>
+                  <c:v>17.471027009924555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,8 +1919,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86349725254432796"/>
-          <c:y val="3.0476064713821617E-2"/>
+          <c:x val="0.89087593282386057"/>
+          <c:y val="1.4947905558749102E-2"/>
           <c:w val="0.10135353705204569"/>
           <c:h val="8.8455311477580303E-2"/>
         </c:manualLayout>
@@ -2026,13 +2017,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
               <a:t>Время выполнения алгоритма со </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -2041,24 +2035,18 @@
               <a:t>статическим распределением</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t> и </a:t>
+              <a:t> и методом раннего выхода со случайным выбором точек</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>s</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600">
+            <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -3075,8 +3063,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.86417527569335995"/>
-          <c:y val="2.7449490237618685E-2"/>
+          <c:x val="0.88802014765937987"/>
+          <c:y val="1.4570703236820177E-2"/>
           <c:w val="9.9356077678879981E-2"/>
           <c:h val="6.2094586215728519E-2"/>
         </c:manualLayout>
@@ -3173,7 +3161,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3181,7 +3169,7 @@
               <a:t>Время выполнения алгоритма с </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
@@ -3189,7 +3177,7 @@
               <a:t>динамическим распределением</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1">
+              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -3197,34 +3185,23 @@
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>и</a:t>
+              <a:t>и </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600" b="1" baseline="0">
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="tr-TR" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>s</a:t>
+              <a:t>методом раннего выхода со случайным выбором точек</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>cipy.spatial.distance.directed_hausdorff</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1600" b="1">
+            <a:endParaRPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3945,8 +3922,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.87633989913238763"/>
-          <c:y val="1.8386575666463102E-2"/>
+          <c:x val="0.88619497191747676"/>
+          <c:y val="1.6601798689805061E-2"/>
           <c:w val="9.9726352675253177E-2"/>
           <c:h val="6.0236644563070436E-2"/>
         </c:manualLayout>
@@ -12599,13 +12576,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
+      <xdr:colOff>549088</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
@@ -14393,8 +14370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA839B1C-3EAE-4507-A101-468001B68762}">
   <dimension ref="C2:F32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14504,15 +14481,15 @@
         <v>16</v>
       </c>
       <c r="D9" s="6">
-        <v>189.33671000000001</v>
+        <v>190.88708</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>13.694498441427443</v>
+        <v>13.583272791432504</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="1"/>
-        <v>0.85590615258921521</v>
+        <v>0.84895454946453153</v>
       </c>
     </row>
     <row r="10" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14566,7 +14543,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="6">
-        <v>6784.8931700000003</v>
+        <v>2400.9178000000002</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" ref="E27:E32" si="2">$D$27/D27</f>
@@ -14582,15 +14559,15 @@
         <v>2</v>
       </c>
       <c r="D28" s="6">
-        <v>3472.13913</v>
+        <v>1286.1327200000001</v>
       </c>
       <c r="E28" s="7">
         <f t="shared" si="2"/>
-        <v>1.9540959955714678</v>
+        <v>1.8667729719215915</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="3"/>
-        <v>0.97704799778573392</v>
+        <v>0.93338648596079576</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14598,15 +14575,15 @@
         <v>4</v>
       </c>
       <c r="D29" s="6">
-        <v>1782.1538499999999</v>
+        <v>677.85973000000001</v>
       </c>
       <c r="E29" s="7">
         <f t="shared" si="2"/>
-        <v>3.8071310005025665</v>
+        <v>3.5419094743981918</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="3"/>
-        <v>0.95178275012564162</v>
+        <v>0.88547736859954795</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14614,15 +14591,15 @@
         <v>8</v>
       </c>
       <c r="D30" s="6">
-        <v>951.96270000000004</v>
+        <v>381.38065</v>
       </c>
       <c r="E30" s="7">
         <f t="shared" si="2"/>
-        <v>7.1272678750963667</v>
+        <v>6.2953319734496231</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="3"/>
-        <v>0.89090848438704584</v>
+        <v>0.78691649668120289</v>
       </c>
     </row>
     <row r="31" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14630,15 +14607,15 @@
         <v>16</v>
       </c>
       <c r="D31" s="6">
-        <v>504.84285999999997</v>
+        <v>200.74110999999999</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" si="2"/>
-        <v>13.439614001869812</v>
+        <v>11.960269622898869</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="3"/>
-        <v>0.83997587511686322</v>
+        <v>0.7475168514311793</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14646,15 +14623,15 @@
         <v>32</v>
       </c>
       <c r="D32" s="6">
-        <v>290.83019000000002</v>
+        <v>137.42282</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="2"/>
-        <v>23.329397714865845</v>
+        <v>17.471027009924555</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="3"/>
-        <v>0.72904367858955765</v>
+        <v>0.54596959406014234</v>
       </c>
     </row>
   </sheetData>
@@ -14674,13 +14651,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37790DDA-78D0-4C40-B051-A90A24181DEC}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Results/launch_results.xlsx
+++ b/Results/launch_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\MSU\4_1\Hausdorff\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAE0524-0950-4A88-A906-C43F5E735318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2067A2-8ECD-4CDE-87A5-E3D434ABEBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
+    <workbookView xWindow="690" yWindow="690" windowWidth="26505" windowHeight="13590" xr2:uid="{14B6E373-58AE-4468-B41D-449D8FB61223}"/>
   </bookViews>
   <sheets>
     <sheet name="scipy.spatial.distance 12155" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -453,7 +453,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -630,7 +630,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -798,7 +798,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -836,7 +836,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -935,7 +935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -967,7 +967,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -1009,7 +1009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -1075,7 +1075,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1102,7 +1102,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1202,7 +1202,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1302,7 +1302,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1478,7 +1478,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1641,7 +1641,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1679,7 +1679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -1807,7 +1807,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1839,7 +1839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -1881,7 +1881,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -1947,7 +1947,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1974,7 +1974,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2074,7 +2074,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2122,6 +2122,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2079212294816384E-3"/>
+                  <c:y val="3.4956707573595966E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7D5B-4AD1-9C14-F8D17A0710B3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="4472C4">
@@ -2153,7 +2174,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2328,7 +2349,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2347,8 +2368,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2439557739532045E-17"/>
-                  <c:y val="4.5834454132102354E-2"/>
+                  <c:x val="-2.1039606147408449E-2"/>
+                  <c:y val="-1.8559505500937008E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -2382,7 +2403,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2400,6 +2421,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4026404098272814E-3"/>
+                  <c:y val="1.8398267143997877E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="ED7D31">
@@ -2431,7 +2458,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2441,6 +2468,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-924C-4454-B9F4-8866F448BB44}"/>
                 </c:ext>
@@ -2479,7 +2507,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2527,7 +2555,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2575,7 +2603,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -2621,7 +2649,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2811,7 +2839,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2849,7 +2877,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -2950,7 +2978,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2982,7 +3010,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -3024,7 +3052,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -3091,7 +3119,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3118,7 +3146,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3231,7 +3259,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3310,7 +3338,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3485,7 +3513,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3672,7 +3700,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3710,7 +3738,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -3809,7 +3837,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3841,7 +3869,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -3883,7 +3911,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -3950,7 +3978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3977,7 +4005,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4109,7 +4137,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4188,7 +4216,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4363,7 +4391,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4550,7 +4578,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4588,7 +4616,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -4687,7 +4715,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4719,7 +4747,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -4761,7 +4789,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -4828,7 +4856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4855,7 +4883,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4970,7 +4998,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5049,7 +5077,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5224,7 +5252,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -5243,8 +5271,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.2439557739532045E-17"/>
-                  <c:y val="4.5834454132102354E-2"/>
+                  <c:x val="-2.1739130434782608E-2"/>
+                  <c:y val="-3.163952667160734E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -5278,7 +5306,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -5327,7 +5355,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -5375,7 +5403,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -5423,7 +5451,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -5471,7 +5499,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -5517,7 +5545,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5707,7 +5735,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5745,7 +5773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -5846,7 +5874,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5878,7 +5906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -5920,7 +5948,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -5987,7 +6015,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6014,7 +6042,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6135,7 +6163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6214,7 +6242,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6389,7 +6417,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6576,7 +6604,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6614,7 +6642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -6713,7 +6741,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6745,7 +6773,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -6787,7 +6815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -6854,7 +6882,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6881,7 +6909,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6979,7 +7007,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7058,7 +7086,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7233,7 +7261,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -7287,7 +7315,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -7336,7 +7364,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -7384,7 +7412,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -7432,7 +7460,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -7480,7 +7508,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="ru-RU"/>
                 </a:p>
               </c:txPr>
               <c:showLegendKey val="0"/>
@@ -7526,7 +7554,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7716,7 +7744,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7754,7 +7782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698829696"/>
@@ -7855,7 +7883,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7887,7 +7915,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1698828864"/>
@@ -7929,7 +7957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955801920"/>
@@ -7996,7 +8024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8023,7 +8051,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14370,8 +14398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA839B1C-3EAE-4507-A101-468001B68762}">
   <dimension ref="C2:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14651,8 +14679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37790DDA-78D0-4C40-B051-A90A24181DEC}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14943,8 +14971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58481C45-4010-45FD-AA67-D1CD08F55204}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15522,7 +15550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7133C0AE-F16D-48E6-B7D2-D067ED4DDD94}">
   <dimension ref="B5:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
